--- a/FunctionList-YunkiKim.xlsx
+++ b/FunctionList-YunkiKim.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360F1C6-491C-F243-B7C7-E5A581D62788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA240A9F-836A-8843-B412-7F653D8C615A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>GUI 기반의 성적처리 프로그램 기능 목록표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,22 +161,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결재수단 등록(신용/체크카드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직접입력: 카드번호 첫 8자리는 전통적인 텐키로 입력, 
+    <t>결재수단 등록(계좌이체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(신용/체크카드) 직접입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(신용/체크카드) 스캔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직접입력: 카드번호 첫 8자리는 전통적인 텐키로 입력, 
              뒷 8자리, 유효기간(MM/YY), CVC(카드 뒷면 3자리)는 랜덤으로. 배.  치된 텐키로 입력, 
-카메라를 이용한 카드 스캔: 카드번호, 카드사, 유효기간(MM/YY)자동 인식,    CVC(카드 뒷면 3자리) 랜덤으로 배치된 텐키로 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재수단 등록(계좌이체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용할 은행사 선택, 계좌번호 입력(-제외, '-'를 포함해 붙여넣으면 자동으로 '-'생략),
-확인 누르면 해당 계좌로 1원 전송, 계좌 이체 내역에서 1원에 대한 4자리 문구 확인 및 입력,
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라를 이용한 카드 스캔: 카드번호, 카드사, 유효기간(MM/YY)자동 인식,    CVC(카드 뒷면 3자리) 랜덤으로 배치된 텐키로 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 은행사 선택계좌번호 입력(-제외, '-'를 포함해 붙여넣으면 자동으로 '-'생략), 확인 누르면 해당 계좌로 1원 전송, 계좌 이체 내역에서 1원에 대한 4자리 문구 확인 및 입력,
 입력 후 통신사, 전화번호, 내국인 여부 선택 후 ARS 인증요청, ARS인증 후 확인 버튼 입력, ARS 인증 에러시 ARS재인증 버튼, ARS인증시 생일 6자리 입력, 등록완료 확인 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,12 +286,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,41 +630,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEBDF31-397E-E745-B9FC-DD6C433EE8AD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="92.5" customWidth="1"/>
+    <col min="4" max="4" width="107.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
@@ -837,7 +830,7 @@
       <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="5"/>
@@ -855,45 +848,58 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="72">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="72">
+    <row r="19" spans="1:5" ht="54">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="72">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/FunctionList-YunkiKim.xlsx
+++ b/FunctionList-YunkiKim.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA240A9F-836A-8843-B412-7F653D8C615A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E0C219-958B-8E4C-BF19-8242D6D79B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>GUI 기반의 성적처리 프로그램 기능 목록표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>주문 버튼을 누르면 선택된 계좌 or 체크카드 or 신용카드로 자동 결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재수단 등록(계좌이체)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,8 +179,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용할 은행사 선택계좌번호 입력(-제외, '-'를 포함해 붙여넣으면 자동으로 '-'생략), 확인 누르면 해당 계좌로 1원 전송, 계좌 이체 내역에서 1원에 대한 4자리 문구 확인 및 입력,
-입력 후 통신사, 전화번호, 내국인 여부 선택 후 ARS 인증요청, ARS인증 후 확인 버튼 입력, ARS 인증 에러시 ARS재인증 버튼, ARS인증시 생일 6자리 입력, 등록완료 확인 버튼</t>
+    <t>결재수단 등록(계좌이체)-은행사 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 은행사 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-계좌 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 은행사 선택계좌번호 입력(-제외, '-'를 포함해 붙여넣으면 자동으로 '-'생략)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-계좌 인증(이체내역 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 누르면 해당 계좌로 1원 전송, 계좌 이체 내역에서 1원에 대한 4자리 문구 확인 및 입력,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-개인 신상 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">통신사, 전화번호, 내국인 여부 선택 후 ARS 인증요청, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재수단 등록(계좌이체)-ARS인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARS인증 후 확인 버튼 입력, ARS 인증 에러시 ARS재인증 버튼, ARS인증시 생일 6자리 입력, 등록완료 확인 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,15 +667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
     <col min="4" max="4" width="107.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -854,10 +890,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -867,39 +903,100 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="72">
+    <row r="20" spans="1:5" ht="18">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="18">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="36">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
